--- a/test.xlsx
+++ b/test.xlsx
@@ -19,9 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>twset</t>
+  </si>
+  <si>
+    <t>asdfas</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
+  </si>
+  <si>
+    <t>dfa</t>
   </si>
 </sst>
 </file>
@@ -373,17 +382,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3"/>
+  <dimension ref="A3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -19,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>twset</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>asdfas</t>
   </si>
   <si>
-    <t>asdfasdf</t>
-  </si>
-  <si>
-    <t>dfa</t>
+    <t>asdfasd</t>
   </si>
 </sst>
 </file>
@@ -382,29 +376,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D7"/>
+  <dimension ref="C4:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
